--- a/app/home/drscan.xlsx
+++ b/app/home/drscan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,108 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SNPS</t>
   </si>
   <si>
-    <t>rs144573434</t>
+    <t>rs356168</t>
   </si>
   <si>
-    <t>rs145282773</t>
-  </si>
-  <si>
-    <t>rs147285445</t>
-  </si>
-  <si>
-    <t>rs186891871</t>
-  </si>
-  <si>
-    <t>rs141976661</t>
-  </si>
-  <si>
-    <t>rs139638356</t>
-  </si>
-  <si>
-    <t>rs185170954</t>
-  </si>
-  <si>
-    <t>rs115798104</t>
-  </si>
-  <si>
-    <t>rs181696879</t>
-  </si>
-  <si>
-    <t>rs138449900</t>
-  </si>
-  <si>
-    <t>rs141846544</t>
-  </si>
-  <si>
-    <t>rs117022236</t>
-  </si>
-  <si>
-    <t>rs140587050</t>
-  </si>
-  <si>
-    <t>rs183291664</t>
-  </si>
-  <si>
-    <t>rs142076474</t>
-  </si>
-  <si>
-    <t>rs181299481</t>
-  </si>
-  <si>
-    <t>rs191404864</t>
-  </si>
-  <si>
-    <t>rs112404845</t>
-  </si>
-  <si>
-    <t>rs183256737</t>
-  </si>
-  <si>
-    <t>rs79930850</t>
-  </si>
-  <si>
-    <t>rs143261188</t>
-  </si>
-  <si>
-    <t>rs115078773</t>
-  </si>
-  <si>
-    <t>rs139195876</t>
-  </si>
-  <si>
-    <t>rs16961023</t>
-  </si>
-  <si>
-    <t>rs72842919</t>
-  </si>
-  <si>
-    <t>rs181990369</t>
-  </si>
-  <si>
-    <t>rs181228315</t>
-  </si>
-  <si>
-    <t>rs147150305</t>
-  </si>
-  <si>
-    <t>rs187295598</t>
-  </si>
-  <si>
-    <t>rs142660142</t>
-  </si>
-  <si>
-    <t>rs77544685</t>
-  </si>
-  <si>
-    <t>rs144167489</t>
-  </si>
-  <si>
-    <t>rs75635567</t>
+    <t>rs3756054</t>
   </si>
 </sst>
 </file>
@@ -440,15 +347,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -466,161 +373,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/home/drscan.xlsx
+++ b/app/home/drscan.xlsx
@@ -24,9 +24,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SNPS</t>
+  </si>
+  <si>
+    <t>rs144573434</t>
+  </si>
+  <si>
+    <t>rs145282773</t>
+  </si>
+  <si>
+    <t>rs147285445</t>
+  </si>
+  <si>
+    <t>rs186891871</t>
+  </si>
+  <si>
+    <t>rs141976661</t>
+  </si>
+  <si>
+    <t>rs139638356</t>
+  </si>
+  <si>
+    <t>rs185170954</t>
+  </si>
+  <si>
+    <t>rs115798104</t>
+  </si>
+  <si>
+    <t>rs181696879</t>
+  </si>
+  <si>
+    <t>rs138449900</t>
+  </si>
+  <si>
+    <t>rs141846544</t>
+  </si>
+  <si>
+    <t>rs117022236</t>
+  </si>
+  <si>
+    <t>rs140587050</t>
+  </si>
+  <si>
+    <t>rs183291664</t>
+  </si>
+  <si>
+    <t>rs142076474</t>
+  </si>
+  <si>
+    <t>rs181299481</t>
+  </si>
+  <si>
+    <t>rs191404864</t>
+  </si>
+  <si>
+    <t>rs112404845</t>
+  </si>
+  <si>
+    <t>rs183256737</t>
+  </si>
+  <si>
+    <t>rs79930850</t>
+  </si>
+  <si>
+    <t>rs143261188</t>
+  </si>
+  <si>
+    <t>rs115078773</t>
+  </si>
+  <si>
+    <t>rs139195876</t>
+  </si>
+  <si>
+    <t>rs16961023</t>
+  </si>
+  <si>
+    <t>rs72842919</t>
+  </si>
+  <si>
+    <t>rs181990369</t>
+  </si>
+  <si>
+    <t>rs181228315</t>
+  </si>
+  <si>
+    <t>rs147150305</t>
+  </si>
+  <si>
+    <t>rs187295598</t>
+  </si>
+  <si>
+    <t>rs142660142</t>
+  </si>
+  <si>
+    <t>rs77544685</t>
+  </si>
+  <si>
+    <t>rs144167489</t>
+  </si>
+  <si>
+    <t>rs75635567</t>
   </si>
   <si>
     <t>rs356168</t>
@@ -347,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -373,6 +472,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/home/drscan.xlsx
+++ b/app/home/drscan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzanaporto/Documents/Bioinformática/DRSCAN_web_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzanaporto/Documents/Bioinformática/REGULOMIX_testes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,121 +24,1402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+  <si>
+    <t>rs356168</t>
+  </si>
+  <si>
+    <t>rs3756054</t>
+  </si>
+  <si>
+    <t>rs34194714</t>
+  </si>
+  <si>
+    <t>rs356177</t>
+  </si>
+  <si>
+    <t>rs356175</t>
+  </si>
+  <si>
+    <t>rs356176</t>
+  </si>
+  <si>
+    <t>rs356174</t>
+  </si>
+  <si>
+    <t>rs28393675</t>
+  </si>
+  <si>
+    <t>rs3857059</t>
+  </si>
+  <si>
+    <t>rs986610</t>
+  </si>
+  <si>
+    <t>rs356218</t>
+  </si>
+  <si>
+    <t>rs28578903</t>
+  </si>
+  <si>
+    <t>rs75541595</t>
+  </si>
+  <si>
+    <t>rs2572324</t>
+  </si>
+  <si>
+    <t>rs3775439</t>
+  </si>
+  <si>
+    <t>rs57175349</t>
+  </si>
+  <si>
+    <t>rs2583977</t>
+  </si>
+  <si>
+    <t>rs1903575</t>
+  </si>
+  <si>
+    <t>rs10516850</t>
+  </si>
+  <si>
+    <t>rs78586832</t>
+  </si>
+  <si>
+    <t>rs2583976</t>
+  </si>
+  <si>
+    <t>rs9999231</t>
+  </si>
+  <si>
+    <t>rs13142587</t>
+  </si>
+  <si>
+    <t>rs2737030</t>
+  </si>
+  <si>
+    <t>rs4356886</t>
+  </si>
+  <si>
+    <t>rs75699153</t>
+  </si>
+  <si>
+    <t>rs2583985</t>
+  </si>
+  <si>
+    <t>rs2737033</t>
+  </si>
+  <si>
+    <t>rs112645122</t>
+  </si>
+  <si>
+    <t>rs77490515</t>
+  </si>
+  <si>
+    <t>rs2736990</t>
+  </si>
+  <si>
+    <t>rs1372516</t>
+  </si>
+  <si>
+    <t>rs2737024</t>
+  </si>
+  <si>
+    <t>rs3775473</t>
+  </si>
+  <si>
+    <t>rs7690873</t>
+  </si>
+  <si>
+    <t>rs2619373</t>
+  </si>
+  <si>
+    <t>rs356215</t>
+  </si>
+  <si>
+    <t>rs2583959</t>
+  </si>
+  <si>
+    <t>rs3857061</t>
+  </si>
+  <si>
+    <t>rs17016188</t>
+  </si>
+  <si>
+    <t>rs10516839</t>
+  </si>
+  <si>
+    <t>rs2197120</t>
+  </si>
+  <si>
+    <t>rs75121139</t>
+  </si>
+  <si>
+    <t>rs356192</t>
+  </si>
+  <si>
+    <t>rs356207</t>
+  </si>
+  <si>
+    <t>rs78942105</t>
+  </si>
+  <si>
+    <t>rs2572322</t>
+  </si>
+  <si>
+    <t>rs75260318</t>
+  </si>
+  <si>
+    <t>rs12641781</t>
+  </si>
+  <si>
+    <t>rs6848708</t>
+  </si>
+  <si>
+    <t>rs3857057</t>
+  </si>
+  <si>
+    <t>rs356214</t>
+  </si>
+  <si>
+    <t>rs356206</t>
+  </si>
+  <si>
+    <t>rs356208</t>
+  </si>
+  <si>
+    <t>rs356200</t>
+  </si>
+  <si>
+    <t>rs181489</t>
+  </si>
+  <si>
+    <t>rs33965306</t>
+  </si>
+  <si>
+    <t>rs6825421</t>
+  </si>
+  <si>
+    <t>rs990088</t>
+  </si>
+  <si>
+    <t>rs73831461</t>
+  </si>
+  <si>
+    <t>rs356213</t>
+  </si>
+  <si>
+    <t>rs112624774</t>
+  </si>
+  <si>
+    <t>rs10011947</t>
+  </si>
+  <si>
+    <t>rs356209</t>
+  </si>
+  <si>
+    <t>rs2572323</t>
+  </si>
+  <si>
+    <t>rs990087</t>
+  </si>
+  <si>
+    <t>rs181490</t>
+  </si>
+  <si>
+    <t>rs2737026</t>
+  </si>
+  <si>
+    <t>rs74329237</t>
+  </si>
+  <si>
+    <t>rs2619350</t>
+  </si>
+  <si>
+    <t>rs10014396</t>
+  </si>
+  <si>
+    <t>rs356182</t>
+  </si>
+  <si>
+    <t>rs1811442</t>
+  </si>
+  <si>
+    <t>rs79956144</t>
+  </si>
+  <si>
+    <t>rs34164595</t>
+  </si>
+  <si>
+    <t>rs78110639</t>
+  </si>
+  <si>
+    <t>rs55932807</t>
+  </si>
+  <si>
+    <t>rs990086</t>
+  </si>
+  <si>
+    <t>rs2583987</t>
+  </si>
+  <si>
+    <t>rs356211</t>
+  </si>
+  <si>
+    <t>rs983361</t>
+  </si>
+  <si>
+    <t>rs3910105</t>
+  </si>
+  <si>
+    <t>rs1837890</t>
+  </si>
+  <si>
+    <t>rs10516852</t>
+  </si>
+  <si>
+    <t>rs3933594</t>
+  </si>
+  <si>
+    <t>rs1430961</t>
+  </si>
+  <si>
+    <t>rs151186370</t>
+  </si>
+  <si>
+    <t>rs990085</t>
+  </si>
+  <si>
+    <t>rs3775477</t>
+  </si>
+  <si>
+    <t>rs115027723</t>
+  </si>
+  <si>
+    <t>rs17016715</t>
+  </si>
+  <si>
+    <t>rs1045722</t>
+  </si>
+  <si>
+    <t>rs6848483</t>
+  </si>
+  <si>
+    <t>rs6822088</t>
+  </si>
+  <si>
+    <t>rs10027842</t>
+  </si>
+  <si>
+    <t>rs71609573</t>
+  </si>
+  <si>
+    <t>rs56146644</t>
+  </si>
+  <si>
+    <t>rs72657707</t>
+  </si>
+  <si>
+    <t>rs2165614</t>
+  </si>
+  <si>
+    <t>rs2619344</t>
+  </si>
+  <si>
+    <t>rs115891767</t>
+  </si>
+  <si>
+    <t>rs2583975</t>
+  </si>
+  <si>
+    <t>rs6830383</t>
+  </si>
+  <si>
+    <t>rs2583971</t>
+  </si>
+  <si>
+    <t>rs80283803</t>
+  </si>
+  <si>
+    <t>rs111920199</t>
+  </si>
+  <si>
+    <t>rs1442145</t>
+  </si>
+  <si>
+    <t>rs356203</t>
+  </si>
+  <si>
+    <t>rs3857058</t>
+  </si>
+  <si>
+    <t>rs2583963</t>
+  </si>
+  <si>
+    <t>rs2619342</t>
+  </si>
+  <si>
+    <t>rs356202</t>
+  </si>
+  <si>
+    <t>rs11935469</t>
+  </si>
+  <si>
+    <t>rs201262510</t>
+  </si>
+  <si>
+    <t>rs114685218</t>
+  </si>
+  <si>
+    <t>rs59559246</t>
+  </si>
+  <si>
+    <t>rs34426119</t>
+  </si>
+  <si>
+    <t>rs116227916</t>
+  </si>
+  <si>
+    <t>rs59852608</t>
+  </si>
+  <si>
+    <t>rs58930449</t>
+  </si>
+  <si>
+    <t>rs1442148</t>
+  </si>
+  <si>
+    <t>rs114828326</t>
+  </si>
+  <si>
+    <t>rs72659403</t>
+  </si>
+  <si>
+    <t>rs77823616</t>
+  </si>
+  <si>
+    <t>rs73831856</t>
+  </si>
+  <si>
+    <t>rs60909103</t>
+  </si>
+  <si>
+    <t>rs74602602</t>
+  </si>
+  <si>
+    <t>rs6816633</t>
+  </si>
+  <si>
+    <t>rs79438231</t>
+  </si>
+  <si>
+    <t>rs356219</t>
+  </si>
+  <si>
+    <t>rs67262058</t>
+  </si>
+  <si>
+    <t>rs2619370</t>
+  </si>
+  <si>
+    <t>rs2737015</t>
+  </si>
+  <si>
+    <t>rs2619351</t>
+  </si>
+  <si>
+    <t>rs4122861</t>
+  </si>
+  <si>
+    <t>rs75453887</t>
+  </si>
+  <si>
+    <t>rs3775424</t>
+  </si>
+  <si>
+    <t>rs1442149</t>
+  </si>
+  <si>
+    <t>rs2737000</t>
+  </si>
+  <si>
+    <t>rs2619359</t>
+  </si>
+  <si>
+    <t>rs2736989</t>
+  </si>
+  <si>
+    <t>rs73831836</t>
+  </si>
+  <si>
+    <t>rs3857053</t>
+  </si>
+  <si>
+    <t>rs356165</t>
+  </si>
+  <si>
+    <t>rs11944331</t>
+  </si>
+  <si>
+    <t>rs356188</t>
+  </si>
+  <si>
+    <t>rs17016193</t>
+  </si>
+  <si>
+    <t>rs2583981</t>
+  </si>
+  <si>
+    <t>rs2736988</t>
+  </si>
+  <si>
+    <t>rs2619340</t>
+  </si>
+  <si>
+    <t>rs73832741</t>
+  </si>
+  <si>
+    <t>rs356205</t>
+  </si>
+  <si>
+    <t>rs189596</t>
+  </si>
+  <si>
+    <t>rs2737018</t>
+  </si>
+  <si>
+    <t>rs2583982</t>
+  </si>
+  <si>
+    <t>rs13125108</t>
+  </si>
+  <si>
+    <t>rs356181</t>
+  </si>
+  <si>
+    <t>rs114029251</t>
+  </si>
+  <si>
+    <t>rs1442143</t>
+  </si>
+  <si>
+    <t>rs2619352</t>
+  </si>
+  <si>
+    <t>rs74664209</t>
+  </si>
+  <si>
+    <t>rs10516851</t>
+  </si>
+  <si>
+    <t>rs356183</t>
+  </si>
+  <si>
+    <t>rs4088093</t>
+  </si>
+  <si>
+    <t>rs2619346</t>
+  </si>
+  <si>
+    <t>rs2737017</t>
+  </si>
+  <si>
+    <t>rs75226172</t>
+  </si>
+  <si>
+    <t>rs72657784</t>
+  </si>
+  <si>
+    <t>rs142404622</t>
+  </si>
+  <si>
+    <t>rs356199</t>
+  </si>
+  <si>
+    <t>rs356184</t>
+  </si>
+  <si>
+    <t>rs2583960</t>
+  </si>
+  <si>
+    <t>rs1471484</t>
+  </si>
+  <si>
+    <t>rs59559279</t>
+  </si>
+  <si>
+    <t>rs3775423</t>
+  </si>
+  <si>
+    <t>rs78504001</t>
+  </si>
+  <si>
+    <t>rs10025915</t>
+  </si>
+  <si>
+    <t>rs10018362</t>
+  </si>
+  <si>
+    <t>rs2737009</t>
+  </si>
+  <si>
+    <t>rs6828095</t>
+  </si>
+  <si>
+    <t>rs116344822</t>
+  </si>
+  <si>
+    <t>rs139560408</t>
+  </si>
+  <si>
+    <t>rs151118864</t>
+  </si>
+  <si>
+    <t>rs61032876</t>
+  </si>
+  <si>
+    <t>rs2583973</t>
+  </si>
+  <si>
+    <t>rs2619358</t>
+  </si>
+  <si>
+    <t>rs2583989</t>
+  </si>
+  <si>
+    <t>rs79093919</t>
+  </si>
+  <si>
+    <t>rs356212</t>
+  </si>
+  <si>
+    <t>rs2583964</t>
+  </si>
+  <si>
+    <t>rs6532197</t>
+  </si>
+  <si>
+    <t>rs79774007</t>
+  </si>
+  <si>
+    <t>rs11933399</t>
+  </si>
+  <si>
+    <t>rs356210</t>
+  </si>
+  <si>
+    <t>rs17016071</t>
+  </si>
+  <si>
+    <t>rs75051606</t>
+  </si>
+  <si>
+    <t>rs28613708</t>
+  </si>
+  <si>
+    <t>rs7698672</t>
+  </si>
+  <si>
+    <t>rs2619372</t>
+  </si>
+  <si>
+    <t>rs2737016</t>
+  </si>
+  <si>
+    <t>rs2583970</t>
+  </si>
+  <si>
+    <t>rs1442147</t>
+  </si>
+  <si>
+    <t>rs3775467</t>
+  </si>
+  <si>
+    <t>rs72657705</t>
+  </si>
+  <si>
+    <t>rs12644119</t>
+  </si>
+  <si>
+    <t>rs2736991</t>
+  </si>
+  <si>
+    <t>rs2298728</t>
+  </si>
+  <si>
+    <t>rs2619355</t>
+  </si>
+  <si>
+    <t>rs2583983</t>
+  </si>
+  <si>
+    <t>rs76106880</t>
+  </si>
+  <si>
+    <t>rs77244248</t>
+  </si>
+  <si>
+    <t>rs8180214</t>
+  </si>
+  <si>
+    <t>rs6826785</t>
+  </si>
+  <si>
+    <t>rs79334889</t>
+  </si>
+  <si>
+    <t>rs75329999</t>
+  </si>
+  <si>
+    <t>rs12644375</t>
+  </si>
+  <si>
+    <t>rs10516853</t>
+  </si>
+  <si>
+    <t>rs76142252</t>
+  </si>
+  <si>
+    <t>rs356228</t>
+  </si>
+  <si>
+    <t>rs356221</t>
+  </si>
+  <si>
+    <t>rs41284763</t>
+  </si>
+  <si>
+    <t>rs74739978</t>
+  </si>
+  <si>
+    <t>rs16996201</t>
+  </si>
+  <si>
+    <t>rs356172</t>
+  </si>
+  <si>
+    <t>rs7681815</t>
+  </si>
+  <si>
+    <t>rs79596632</t>
+  </si>
+  <si>
+    <t>rs17180453</t>
+  </si>
+  <si>
+    <t>rs972880</t>
+  </si>
+  <si>
+    <t>rs11097238</t>
+  </si>
+  <si>
+    <t>rs2737003</t>
+  </si>
+  <si>
+    <t>rs2737035</t>
+  </si>
+  <si>
+    <t>rs60534314</t>
+  </si>
+  <si>
+    <t>rs148785888</t>
+  </si>
+  <si>
+    <t>rs74435784</t>
+  </si>
+  <si>
+    <t>rs62306284</t>
+  </si>
+  <si>
+    <t>rs356204</t>
+  </si>
+  <si>
+    <t>rs28412513</t>
+  </si>
+  <si>
+    <t>rs356197</t>
+  </si>
+  <si>
+    <t>rs3899608</t>
+  </si>
+  <si>
+    <t>rs356162</t>
+  </si>
+  <si>
+    <t>rs2619343</t>
+  </si>
+  <si>
+    <t>rs112334424</t>
+  </si>
+  <si>
+    <t>rs115690633</t>
+  </si>
+  <si>
+    <t>rs7655792</t>
+  </si>
+  <si>
+    <t>rs34104455</t>
+  </si>
+  <si>
+    <t>rs9995651</t>
+  </si>
+  <si>
+    <t>rs2737014</t>
+  </si>
+  <si>
+    <t>rs2583969</t>
+  </si>
+  <si>
+    <t>rs2619366</t>
+  </si>
+  <si>
+    <t>rs1551980</t>
+  </si>
+  <si>
+    <t>rs77476544</t>
+  </si>
+  <si>
+    <t>rs78598237</t>
+  </si>
+  <si>
+    <t>rs72657790</t>
+  </si>
+  <si>
+    <t>rs77970141</t>
+  </si>
+  <si>
+    <t>rs17015966</t>
+  </si>
+  <si>
+    <t>rs7697331</t>
+  </si>
+  <si>
+    <t>rs114298004</t>
+  </si>
+  <si>
+    <t>rs7661330</t>
+  </si>
+  <si>
+    <t>rs356185</t>
+  </si>
+  <si>
+    <t>rs2737029</t>
+  </si>
+  <si>
+    <t>rs75234410</t>
+  </si>
+  <si>
+    <t>rs35897584</t>
+  </si>
+  <si>
+    <t>rs34238791</t>
+  </si>
+  <si>
+    <t>rs2737002</t>
+  </si>
+  <si>
+    <t>rs17016274</t>
+  </si>
+  <si>
+    <t>rs78806632</t>
+  </si>
+  <si>
+    <t>rs57957708</t>
+  </si>
+  <si>
+    <t>rs168552</t>
+  </si>
+  <si>
+    <t>rs34342799</t>
+  </si>
+  <si>
+    <t>rs3775422</t>
+  </si>
+  <si>
+    <t>rs10002435</t>
+  </si>
+  <si>
+    <t>rs6532190</t>
+  </si>
+  <si>
+    <t>rs79994234</t>
+  </si>
+  <si>
+    <t>rs74804948</t>
+  </si>
+  <si>
+    <t>rs59345481</t>
+  </si>
+  <si>
+    <t>rs73832739</t>
+  </si>
+  <si>
+    <t>rs78786660</t>
+  </si>
+  <si>
+    <t>rs356179</t>
+  </si>
+  <si>
+    <t>rs4088094</t>
+  </si>
+  <si>
+    <t>rs2583958</t>
+  </si>
+  <si>
+    <t>rs2737012</t>
+  </si>
+  <si>
+    <t>rs1442146</t>
+  </si>
+  <si>
+    <t>rs112475116</t>
+  </si>
+  <si>
+    <t>rs77825017</t>
+  </si>
+  <si>
+    <t>rs78153704</t>
+  </si>
+  <si>
+    <t>rs77262772</t>
+  </si>
+  <si>
+    <t>rs7666981</t>
+  </si>
+  <si>
+    <t>rs1430960</t>
+  </si>
+  <si>
+    <t>rs34320254</t>
+  </si>
+  <si>
+    <t>rs894278</t>
+  </si>
+  <si>
+    <t>rs2619371</t>
+  </si>
+  <si>
+    <t>rs17016235</t>
+  </si>
+  <si>
+    <t>rs3113355</t>
+  </si>
+  <si>
+    <t>rs2619349</t>
+  </si>
+  <si>
+    <t>rs2737008</t>
+  </si>
+  <si>
+    <t>rs2583988</t>
+  </si>
+  <si>
+    <t>rs17016330</t>
+  </si>
+  <si>
+    <t>rs1442138</t>
+  </si>
+  <si>
+    <t>rs78896073</t>
+  </si>
+  <si>
+    <t>rs3775465</t>
+  </si>
+  <si>
+    <t>rs75943295</t>
+  </si>
+  <si>
+    <t>rs116274619</t>
+  </si>
+  <si>
+    <t>rs356169</t>
+  </si>
+  <si>
+    <t>rs7675290</t>
+  </si>
+  <si>
+    <t>rs142059155</t>
+  </si>
+  <si>
+    <t>rs10516845</t>
+  </si>
+  <si>
+    <t>rs4031753</t>
+  </si>
+  <si>
+    <t>rs2619368</t>
+  </si>
+  <si>
+    <t>rs2737023</t>
+  </si>
+  <si>
+    <t>rs2737019</t>
+  </si>
+  <si>
+    <t>rs2737010</t>
+  </si>
+  <si>
+    <t>rs2737001</t>
+  </si>
+  <si>
+    <t>rs2736996</t>
+  </si>
+  <si>
+    <t>rs2583990</t>
+  </si>
+  <si>
+    <t>rs75856065</t>
+  </si>
+  <si>
+    <t>rs114316208</t>
+  </si>
+  <si>
+    <t>rs12646270</t>
+  </si>
+  <si>
+    <t>rs7681312</t>
+  </si>
+  <si>
+    <t>rs3857051</t>
+  </si>
+  <si>
+    <t>rs10033209</t>
+  </si>
+  <si>
+    <t>rs3822086</t>
+  </si>
+  <si>
+    <t>rs2737025</t>
+  </si>
+  <si>
+    <t>rs2737011</t>
+  </si>
+  <si>
+    <t>rs2583974</t>
+  </si>
+  <si>
+    <t>rs73831827</t>
+  </si>
+  <si>
+    <t>rs74547239</t>
+  </si>
+  <si>
+    <t>rs10433955</t>
+  </si>
+  <si>
+    <t>rs3775478</t>
+  </si>
+  <si>
+    <t>rs356222</t>
+  </si>
+  <si>
+    <t>rs60031383</t>
+  </si>
+  <si>
+    <t>rs3775433</t>
+  </si>
+  <si>
+    <t>rs58054215</t>
+  </si>
+  <si>
+    <t>rs356186</t>
+  </si>
+  <si>
+    <t>rs2583965</t>
+  </si>
+  <si>
+    <t>rs2583966</t>
+  </si>
+  <si>
+    <t>rs2619341</t>
+  </si>
+  <si>
+    <t>rs2619347</t>
+  </si>
+  <si>
+    <t>rs74601458</t>
+  </si>
+  <si>
+    <t>rs79065179</t>
+  </si>
+  <si>
+    <t>rs17016396</t>
+  </si>
+  <si>
+    <t>rs356230</t>
+  </si>
+  <si>
+    <t>rs356170</t>
+  </si>
+  <si>
+    <t>rs11931074</t>
+  </si>
+  <si>
+    <t>rs356198</t>
+  </si>
+  <si>
+    <t>rs356195</t>
+  </si>
+  <si>
+    <t>rs168550</t>
+  </si>
+  <si>
+    <t>rs2737020</t>
+  </si>
+  <si>
+    <t>rs11721779</t>
+  </si>
+  <si>
+    <t>rs77986099</t>
+  </si>
+  <si>
+    <t>rs77713265</t>
+  </si>
+  <si>
+    <t>rs11933687</t>
+  </si>
+  <si>
+    <t>rs10003708</t>
+  </si>
+  <si>
+    <t>rs356166</t>
+  </si>
+  <si>
+    <t>rs356191</t>
+  </si>
+  <si>
+    <t>rs11931062</t>
+  </si>
+  <si>
+    <t>rs3910104</t>
+  </si>
+  <si>
+    <t>rs356187</t>
+  </si>
+  <si>
+    <t>rs2572318</t>
+  </si>
+  <si>
+    <t>rs1866995</t>
+  </si>
+  <si>
+    <t>rs2736998</t>
+  </si>
+  <si>
+    <t>rs2736997</t>
+  </si>
+  <si>
+    <t>rs2736995</t>
+  </si>
+  <si>
+    <t>rs74402838</t>
+  </si>
+  <si>
+    <t>rs10516849</t>
+  </si>
+  <si>
+    <t>rs76572204</t>
+  </si>
+  <si>
+    <t>rs1372511</t>
+  </si>
+  <si>
+    <t>rs76644078</t>
+  </si>
+  <si>
+    <t>rs113471851</t>
+  </si>
+  <si>
+    <t>rs356180</t>
+  </si>
+  <si>
+    <t>rs356173</t>
+  </si>
+  <si>
+    <t>rs76667577</t>
+  </si>
+  <si>
+    <t>rs3857052</t>
+  </si>
+  <si>
+    <t>rs7436973</t>
+  </si>
+  <si>
+    <t>rs8180209</t>
+  </si>
+  <si>
+    <t>rs6834765</t>
+  </si>
+  <si>
+    <t>rs35495602</t>
+  </si>
+  <si>
+    <t>rs2737028</t>
+  </si>
+  <si>
+    <t>rs2583984</t>
+  </si>
+  <si>
+    <t>rs2737034</t>
+  </si>
+  <si>
+    <t>rs11727074</t>
+  </si>
+  <si>
+    <t>rs72659413</t>
+  </si>
+  <si>
+    <t>rs79583356</t>
+  </si>
+  <si>
+    <t>rs78553492</t>
+  </si>
+  <si>
+    <t>rs356178</t>
+  </si>
+  <si>
+    <t>rs7684318</t>
+  </si>
+  <si>
+    <t>rs184810</t>
+  </si>
+  <si>
+    <t>rs3822090</t>
+  </si>
+  <si>
+    <t>rs2572320</t>
+  </si>
+  <si>
+    <t>rs12502363</t>
+  </si>
+  <si>
+    <t>rs2736999</t>
+  </si>
+  <si>
+    <t>rs2736993</t>
+  </si>
+  <si>
+    <t>rs67876224</t>
+  </si>
+  <si>
+    <t>rs3775474</t>
+  </si>
+  <si>
+    <t>rs356171</t>
+  </si>
+  <si>
+    <t>rs356163</t>
+  </si>
+  <si>
+    <t>rs11097234</t>
+  </si>
+  <si>
+    <t>rs2583962</t>
+  </si>
+  <si>
+    <t>rs2737021</t>
+  </si>
+  <si>
+    <t>rs2619348</t>
+  </si>
+  <si>
+    <t>rs2619357</t>
+  </si>
+  <si>
+    <t>rs2583961</t>
+  </si>
+  <si>
+    <t>rs2736994</t>
+  </si>
+  <si>
+    <t>rs6837483</t>
+  </si>
+  <si>
+    <t>rs17016701</t>
+  </si>
+  <si>
+    <t>rs11932021</t>
+  </si>
+  <si>
+    <t>rs356229</t>
+  </si>
+  <si>
+    <t>rs28532850</t>
+  </si>
+  <si>
+    <t>rs11097231</t>
+  </si>
+  <si>
+    <t>rs3775434</t>
+  </si>
+  <si>
+    <t>rs2619345</t>
+  </si>
+  <si>
+    <t>rs2583972</t>
+  </si>
+  <si>
+    <t>rs2619353</t>
+  </si>
+  <si>
+    <t>rs2737006</t>
+  </si>
+  <si>
+    <t>rs2619367</t>
+  </si>
+  <si>
+    <t>rs10028575</t>
+  </si>
+  <si>
+    <t>rs12643823</t>
+  </si>
+  <si>
+    <t>rs12640100</t>
+  </si>
+  <si>
+    <t>rs2298727</t>
+  </si>
+  <si>
+    <t>rs2619339</t>
+  </si>
+  <si>
+    <t>rs17016299</t>
+  </si>
+  <si>
+    <t>rs61611959</t>
+  </si>
+  <si>
+    <t>rs6818319</t>
+  </si>
+  <si>
+    <t>rs11945223</t>
+  </si>
+  <si>
+    <t>rs61579967</t>
+  </si>
+  <si>
+    <t>rs72657800</t>
+  </si>
+  <si>
+    <t>rs16996194</t>
+  </si>
+  <si>
+    <t>rs3857047</t>
+  </si>
+  <si>
+    <t>rs356196</t>
+  </si>
+  <si>
+    <t>rs3822089</t>
+  </si>
+  <si>
+    <t>rs2737022</t>
+  </si>
+  <si>
+    <t>rs78945589</t>
+  </si>
+  <si>
+    <t>rs6848022</t>
+  </si>
+  <si>
+    <t>rs34806123</t>
+  </si>
+  <si>
+    <t>rs2619354</t>
+  </si>
+  <si>
+    <t>rs1442131</t>
+  </si>
+  <si>
+    <t>rs2583967</t>
+  </si>
+  <si>
+    <t>rs80215036</t>
+  </si>
+  <si>
+    <t>rs77431271</t>
+  </si>
+  <si>
+    <t>rs35541731</t>
+  </si>
+  <si>
+    <t>rs79392886</t>
+  </si>
+  <si>
+    <t>rs116370523</t>
+  </si>
+  <si>
+    <t>rs7675105</t>
+  </si>
+  <si>
+    <t>rs6830166</t>
+  </si>
+  <si>
+    <t>rs12648141</t>
+  </si>
+  <si>
+    <t>rs2737013</t>
+  </si>
+  <si>
+    <t>rs10516844</t>
+  </si>
+  <si>
+    <t>rs70963043</t>
+  </si>
+  <si>
+    <t>rs2619361</t>
+  </si>
+  <si>
+    <t>rs2028535</t>
+  </si>
+  <si>
+    <t>rs2245801</t>
+  </si>
+  <si>
+    <t>rs2583978</t>
+  </si>
+  <si>
+    <t>rs2619362</t>
+  </si>
+  <si>
+    <t>rs2737005</t>
+  </si>
+  <si>
+    <t>rs2619360</t>
+  </si>
+  <si>
+    <t>rs2619363</t>
+  </si>
+  <si>
+    <t>rs1372519</t>
+  </si>
+  <si>
+    <t>rs986609</t>
+  </si>
+  <si>
+    <t>rs2583979</t>
+  </si>
+  <si>
+    <t>rs1372518</t>
+  </si>
+  <si>
+    <t>rs2619364</t>
+  </si>
+  <si>
+    <t>rs2737004</t>
+  </si>
+  <si>
+    <t>rs1372520</t>
+  </si>
   <si>
     <t>SNPS</t>
-  </si>
-  <si>
-    <t>rs144573434</t>
-  </si>
-  <si>
-    <t>rs145282773</t>
-  </si>
-  <si>
-    <t>rs147285445</t>
-  </si>
-  <si>
-    <t>rs186891871</t>
-  </si>
-  <si>
-    <t>rs141976661</t>
-  </si>
-  <si>
-    <t>rs139638356</t>
-  </si>
-  <si>
-    <t>rs185170954</t>
-  </si>
-  <si>
-    <t>rs115798104</t>
-  </si>
-  <si>
-    <t>rs181696879</t>
-  </si>
-  <si>
-    <t>rs138449900</t>
-  </si>
-  <si>
-    <t>rs141846544</t>
-  </si>
-  <si>
-    <t>rs117022236</t>
-  </si>
-  <si>
-    <t>rs140587050</t>
-  </si>
-  <si>
-    <t>rs183291664</t>
-  </si>
-  <si>
-    <t>rs142076474</t>
-  </si>
-  <si>
-    <t>rs181299481</t>
-  </si>
-  <si>
-    <t>rs191404864</t>
-  </si>
-  <si>
-    <t>rs112404845</t>
-  </si>
-  <si>
-    <t>rs183256737</t>
-  </si>
-  <si>
-    <t>rs79930850</t>
-  </si>
-  <si>
-    <t>rs143261188</t>
-  </si>
-  <si>
-    <t>rs115078773</t>
-  </si>
-  <si>
-    <t>rs139195876</t>
-  </si>
-  <si>
-    <t>rs16961023</t>
-  </si>
-  <si>
-    <t>rs72842919</t>
-  </si>
-  <si>
-    <t>rs181990369</t>
-  </si>
-  <si>
-    <t>rs181228315</t>
-  </si>
-  <si>
-    <t>rs147150305</t>
-  </si>
-  <si>
-    <t>rs187295598</t>
-  </si>
-  <si>
-    <t>rs142660142</t>
-  </si>
-  <si>
-    <t>rs77544685</t>
-  </si>
-  <si>
-    <t>rs144167489</t>
-  </si>
-  <si>
-    <t>rs75635567</t>
-  </si>
-  <si>
-    <t>rs356168</t>
-  </si>
-  <si>
-    <t>rs3756054</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,13 +1427,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,8 +1468,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,195 +1749,2325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/app/home/drscan.xlsx
+++ b/app/home/drscan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
   <si>
     <t>rs356168</t>
   </si>
@@ -1413,13 +1413,16 @@
   </si>
   <si>
     <t>SNPS</t>
+  </si>
+  <si>
+    <t>INDEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1434,6 +1437,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1468,10 +1477,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,88 +1759,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A463"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448:XFD448"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3992,81 +4016,76 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>458</v>
+      <c r="A460" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="2" t="s">
         <v>461</v>
       </c>
     </row>
